--- a/CASUAL/LA PICNIC GROVE/MORAL, MAURA.xlsx
+++ b/CASUAL/LA PICNIC GROVE/MORAL, MAURA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -316,6 +316,24 @@
   </si>
   <si>
     <t>UT(0-2-15)</t>
+  </si>
+  <si>
+    <t>UT(0-0-59)</t>
+  </si>
+  <si>
+    <t>UT(0-0-49)</t>
+  </si>
+  <si>
+    <t>UT(0-3-55)</t>
+  </si>
+  <si>
+    <t>UT(0-4-3)</t>
+  </si>
+  <si>
+    <t>UT(0-3-45)</t>
+  </si>
+  <si>
+    <t>UT(0-2-21)</t>
   </si>
 </sst>
 </file>
@@ -3374,7 +3392,7 @@
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,7 +3551,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>63.085000000000001</v>
+        <v>61.100999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4666,11 +4684,15 @@
       <c r="A65" s="40">
         <v>44621</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
-      <c r="D65" s="39"/>
+      <c r="D65" s="39">
+        <v>0.29399999999999998</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
@@ -4686,11 +4708,15 @@
       <c r="A66" s="40">
         <v>44652</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="39"/>
+      <c r="D66" s="39">
+        <v>0.46899999999999997</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -4706,11 +4732,15 @@
       <c r="A67" s="40">
         <v>44682</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="39"/>
+      <c r="D67" s="39">
+        <v>0.50600000000000001</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -4726,11 +4756,15 @@
       <c r="A68" s="40">
         <v>44713</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
-      <c r="D68" s="39"/>
+      <c r="D68" s="39">
+        <v>0.49</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
@@ -4746,11 +4780,15 @@
       <c r="A69" s="40">
         <v>44743</v>
       </c>
-      <c r="B69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
-      <c r="D69" s="39"/>
+      <c r="D69" s="39">
+        <v>0.10200000000000001</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
@@ -4786,11 +4824,15 @@
       <c r="A71" s="40">
         <v>44805</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="39"/>
+      <c r="D71" s="39">
+        <v>0.12300000000000001</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -8403,11 +8445,11 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.28100000000000003</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -8456,7 +8498,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>151.83500000000001</v>
+        <v>149.851</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
